--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/7 AUDITORIA ACTIVO INTANGIBLE/7 REVISIÓN DE SEGUROS PAGADOS.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/7 AUDITORIA ACTIVO INTANGIBLE/7 REVISIÓN DE SEGUROS PAGADOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\7 AUDITORIA ACTIVO INTANGIBLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\7 AUDITORIA ACTIVO INTANGIBLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C8A902D-7DCB-4781-8CF4-B6B421FE10A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37658AB2-F172-42EC-A95C-72727C1E6C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -100,15 +100,6 @@
     <t xml:space="preserve"> PÓLIZA</t>
   </si>
   <si>
-    <t xml:space="preserve">                       Empresa, XYZ, S. A. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      Auditoria Financiera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               Revisión de Seguros Pagados</t>
-  </si>
-  <si>
     <t>Del 01 de Enero al 31 de Diciembre de 2022</t>
   </si>
   <si>
@@ -122,14 +113,23 @@
   </si>
   <si>
     <t>G-6</t>
+  </si>
+  <si>
+    <t>Revisión de Seguros Pagados</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Auditoria Financiera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -274,10 +274,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -286,7 +286,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -295,9 +295,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -306,17 +303,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -628,7 +631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -643,11 +646,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H8" sqref="H8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,8 +659,8 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R3" s="17" t="s">
-        <v>29</v>
+      <c r="R3" s="16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
@@ -665,148 +668,157 @@
       <c r="C4" s="12"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="H5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="13"/>
+      <c r="H5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
       <c r="Q5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="H6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="13"/>
+      <c r="H6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
       <c r="Q6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
+      <c r="H7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
       <c r="Q7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="H8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="14"/>
+      <c r="H8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
       <c r="Q8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="R8" s="1"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21" t="s">
+      <c r="J11" s="17"/>
+      <c r="K11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="20" t="s">
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="P11" s="20" t="s">
+      <c r="P11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="Q11" s="20" t="s">
+      <c r="Q11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="R11" s="20" t="s">
+      <c r="R11" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="21"/>
+      <c r="K14" s="17"/>
       <c r="L14" s="2" t="s">
         <v>15</v>
       </c>
@@ -816,19 +828,19 @@
       <c r="N14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="4"/>
@@ -845,9 +857,9 @@
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
@@ -864,9 +876,9 @@
       <c r="C17" s="5"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="4"/>
@@ -883,9 +895,9 @@
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="4"/>
@@ -902,9 +914,9 @@
       <c r="C19" s="5"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="4"/>
@@ -921,9 +933,9 @@
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="4"/>
@@ -940,9 +952,9 @@
       <c r="C21" s="5"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="4"/>
@@ -959,9 +971,9 @@
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="4"/>
@@ -978,9 +990,9 @@
       <c r="C23" s="5"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="4"/>
@@ -997,9 +1009,9 @@
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="4"/>
@@ -1016,9 +1028,9 @@
       <c r="C25" s="5"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="4"/>
@@ -1035,9 +1047,9 @@
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="4"/>
@@ -1054,9 +1066,9 @@
       <c r="C27" s="5"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="20"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="4"/>
@@ -1073,9 +1085,9 @@
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="4"/>
@@ -1092,9 +1104,9 @@
       <c r="C29" s="5"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="4"/>
@@ -1111,9 +1123,9 @@
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="4"/>
@@ -1130,9 +1142,9 @@
       <c r="C31" s="5"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="4"/>
@@ -1149,9 +1161,9 @@
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="4"/>
@@ -1168,9 +1180,9 @@
       <c r="C33" s="5"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="20"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="4"/>
@@ -1187,9 +1199,9 @@
       <c r="C34" s="5"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="20"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="4"/>
@@ -1206,9 +1218,9 @@
       <c r="C35" s="5"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="19"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="20"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="4"/>
@@ -1225,9 +1237,9 @@
       <c r="C36" s="5"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="19"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="20"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="4"/>
@@ -1244,9 +1256,9 @@
       <c r="C37" s="5"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="19"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="20"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="4"/>
@@ -1263,9 +1275,9 @@
       <c r="C38" s="5"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="19"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="20"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="4"/>
@@ -1282,9 +1294,9 @@
       <c r="C39" s="5"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="19"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="20"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="4"/>
@@ -1301,9 +1313,9 @@
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="19"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="20"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="4"/>
@@ -1319,70 +1331,74 @@
       <c r="R40" s="6"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="14" t="s">
-        <v>28</v>
+      <c r="B43" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
       <c r="I48" t="s">
-        <v>27</v>
-      </c>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:H14"/>
-    <mergeCell ref="I11:J13"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
+  <mergeCells count="46">
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="O11:O14"/>
     <mergeCell ref="P11:P14"/>
     <mergeCell ref="Q11:Q14"/>
     <mergeCell ref="R11:R14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:N13"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:H14"/>
+    <mergeCell ref="I11:J13"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="55" orientation="landscape" r:id="rId1"/>

--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/7 AUDITORIA ACTIVO INTANGIBLE/7 REVISIÓN DE SEGUROS PAGADOS.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/7 AUDITORIA ACTIVO INTANGIBLE/7 REVISIÓN DE SEGUROS PAGADOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\7 AUDITORIA ACTIVO INTANGIBLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\Desarrollos-Clientes\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\7 AUDITORIA ACTIVO INTANGIBLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37658AB2-F172-42EC-A95C-72727C1E6C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F275B60-783E-4D43-9A1A-07A729875FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,9 +100,6 @@
     <t xml:space="preserve"> PÓLIZA</t>
   </si>
   <si>
-    <t>Del 01 de Enero al 31 de Diciembre de 2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">Elaboro: </t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>Auditoria Financiera</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
 </sst>
 </file>
@@ -303,12 +303,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -320,6 +314,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -650,7 +650,7 @@
   <dimension ref="B3:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:K8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +660,7 @@
   <sheetData>
     <row r="3" spans="2:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R3" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
@@ -668,157 +668,157 @@
       <c r="C4" s="12"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="H5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="H5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
       <c r="Q5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="H6" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="H6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
       <c r="Q6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="H7" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="H7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
       <c r="Q7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="H8" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
+      <c r="H8" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
       <c r="Q8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="R8" s="1"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17" t="s">
+      <c r="H11" s="22"/>
+      <c r="I11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17" t="s">
+      <c r="J11" s="22"/>
+      <c r="K11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="18" t="s">
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="P11" s="18" t="s">
+      <c r="P11" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="Q11" s="18" t="s">
+      <c r="Q11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="R11" s="18" t="s">
+      <c r="R11" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="17"/>
+      <c r="K14" s="22"/>
       <c r="L14" s="2" t="s">
         <v>15</v>
       </c>
@@ -828,10 +828,10 @@
       <c r="N14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
@@ -839,8 +839,8 @@
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="4"/>
@@ -858,8 +858,8 @@
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
@@ -877,8 +877,8 @@
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="4"/>
@@ -896,8 +896,8 @@
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="4"/>
@@ -915,8 +915,8 @@
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="4"/>
@@ -934,8 +934,8 @@
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="4"/>
@@ -953,8 +953,8 @@
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="4"/>
@@ -972,8 +972,8 @@
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="4"/>
@@ -991,8 +991,8 @@
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="4"/>
@@ -1010,8 +1010,8 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="4"/>
@@ -1029,8 +1029,8 @@
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="4"/>
@@ -1048,8 +1048,8 @@
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="14"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="4"/>
@@ -1067,8 +1067,8 @@
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="4"/>
@@ -1086,8 +1086,8 @@
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
       <c r="F28" s="14"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="4"/>
@@ -1105,8 +1105,8 @@
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
       <c r="F29" s="14"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="4"/>
@@ -1124,8 +1124,8 @@
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
       <c r="F30" s="14"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="4"/>
@@ -1143,8 +1143,8 @@
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
       <c r="F31" s="14"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="4"/>
@@ -1162,8 +1162,8 @@
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="4"/>
@@ -1181,8 +1181,8 @@
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
       <c r="F33" s="14"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="4"/>
@@ -1200,8 +1200,8 @@
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
       <c r="F34" s="14"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="4"/>
@@ -1219,8 +1219,8 @@
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
       <c r="F35" s="14"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="4"/>
@@ -1238,8 +1238,8 @@
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
       <c r="F36" s="14"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="20"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="4"/>
@@ -1257,8 +1257,8 @@
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
       <c r="F37" s="14"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="18"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="4"/>
@@ -1276,8 +1276,8 @@
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
       <c r="F38" s="14"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="20"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="18"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="4"/>
@@ -1295,8 +1295,8 @@
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
       <c r="F39" s="14"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="20"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="18"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="4"/>
@@ -1314,8 +1314,8 @@
       <c r="D40" s="9"/>
       <c r="E40" s="8"/>
       <c r="F40" s="14"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="20"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="18"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="4"/>
@@ -1332,19 +1332,19 @@
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
       <c r="I48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
@@ -1353,11 +1353,22 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:H14"/>
+    <mergeCell ref="I11:J13"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:P14"/>
+    <mergeCell ref="Q11:Q14"/>
+    <mergeCell ref="R11:R14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="L12:N13"/>
+    <mergeCell ref="K11:N11"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="G39:H39"/>
@@ -1374,6 +1385,11 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G23:H23"/>
@@ -1383,22 +1399,6 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:P14"/>
-    <mergeCell ref="Q11:Q14"/>
-    <mergeCell ref="R11:R14"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="L12:N13"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:H14"/>
-    <mergeCell ref="I11:J13"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="55" orientation="landscape" r:id="rId1"/>
